--- a/medicine/Pharmacie/Topiramate/Topiramate.xlsx
+++ b/medicine/Pharmacie/Topiramate/Topiramate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le topiramate est un médicament antiépileptique utilisé pour les épilepsies de type généralisée ou partielle. On le trouve, en France, sous le nom d'Epitomax et aux États-Unis, au Canada, au Royaume-Uni, en Australie et dans certains autres pays sous le nom de Topamax. 
@@ -514,9 +526,11 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un dérivé du D-fructose[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un dérivé du D-fructose.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Pharmacocinétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La biodisponibilité est supérieure à 80 %, sans modification significative par les prises alimentaires. Sa demi-vie est d'environ 24 heures et l'excrétion est rénale. La phénytoïne et la carbamazépine diminuent de moitié sa demi-vie, imposant une augmentation des doses[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La biodisponibilité est supérieure à 80 %, sans modification significative par les prises alimentaires. Sa demi-vie est d'environ 24 heures et l'excrétion est rénale. La phénytoïne et la carbamazépine diminuent de moitié sa demi-vie, imposant une augmentation des doses.
 </t>
         </is>
       </c>
@@ -576,12 +592,14 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>ÉpilepsieÉpilepsie de l'enfant et de l'adolescent. C'est sa première utilisation. Chez l'enfant, il est indiqué pour le traitement du syndrome de Lennox-Gastaut[réf. nécessaire].
-MigrainesPar ailleurs, il diminue notablement le nombre de crises migraineuses lorsqu'il est donné en traitement de fond [4].
-Trouble de la personnalité borderlineTrouble de personnalité borderline notamment instabilité de l'humeur. Cette indication est recommandée par une revue de la Collaboration Cochrane de 2010[5].
-Trouble bipolaireCependant cette indication est critiquée par une revue de la Cochrane qui conclut en une efficacité insuffisante[6].</t>
+MigrainesPar ailleurs, il diminue notablement le nombre de crises migraineuses lorsqu'il est donné en traitement de fond .
+Trouble de la personnalité borderlineTrouble de personnalité borderline notamment instabilité de l'humeur. Cette indication est recommandée par une revue de la Collaboration Cochrane de 2010.
+Trouble bipolaireCependant cette indication est critiquée par une revue de la Cochrane qui conclut en une efficacité insuffisante.</t>
         </is>
       </c>
     </row>
@@ -609,9 +627,11 @@
           <t>Utilisation expérimentale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des études ont été aussi portées sur son utilité dans le traitement des effets induits par la kétamine, utilisé alors comme modèle de la schizophrénie[7],[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des études ont été aussi portées sur son utilité dans le traitement des effets induits par la kétamine, utilisé alors comme modèle de la schizophrénie,.
 </t>
         </is>
       </c>
@@ -640,10 +660,12 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les plus fréquents sont les sensations de fourmillements (paresthésies présents dans la moitié des cas et conduisant à l'arrêt du traitement dans un peu moins d'un cas sur 10) et une perte assez importante de poids durant le traitement[9].
-L'ANSM met en garde contre la tératogénicité du topiramate : les femmes enceintes sont exposées à un risque 3 fois plus grand de malformations du fœtus, notamment des becs-de-lièvre[10] ou des hypospadias. Par ailleurs des cas de troubles neurodéveloppementaux sont rapportés[11]. Un registre scandinave montre une augmentation du risque du trouble du spectre autistique[12] qui n'a cependant pas été retrouvé dans un registre américain[13]. L'ANSM modifie alors les conditions de prescription mentionnant que le risque observé de malformations majeures s’élève jusqu’à 8,2 %, ainsi qu'un risque de survenue de troubles du spectre autistique qui se situe entre 2 et 6 %, enfin un risque de survenue d’une déficience intellectuelle qui situe entre 1 et 8 %[14].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plus fréquents sont les sensations de fourmillements (paresthésies présents dans la moitié des cas et conduisant à l'arrêt du traitement dans un peu moins d'un cas sur 10) et une perte assez importante de poids durant le traitement.
+L'ANSM met en garde contre la tératogénicité du topiramate : les femmes enceintes sont exposées à un risque 3 fois plus grand de malformations du fœtus, notamment des becs-de-lièvre ou des hypospadias. Par ailleurs des cas de troubles neurodéveloppementaux sont rapportés. Un registre scandinave montre une augmentation du risque du trouble du spectre autistique qui n'a cependant pas été retrouvé dans un registre américain. L'ANSM modifie alors les conditions de prescription mentionnant que le risque observé de malformations majeures s’élève jusqu’à 8,2 %, ainsi qu'un risque de survenue de troubles du spectre autistique qui se situe entre 2 et 6 %, enfin un risque de survenue d’une déficience intellectuelle qui situe entre 1 et 8 %.
 </t>
         </is>
       </c>
